--- a/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
+++ b/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -196,58 +196,97 @@
     <t xml:space="preserve">ConceptName</t>
   </si>
   <si>
-    <t xml:space="preserve">DataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
+    <t xml:space="preserve">ConceptDataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConceptDomain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">file:///</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #1</t>
   </si>
   <si>
     <t xml:space="preserve">Dimension</t>
   </si>
   <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO3166 codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL_Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key-value list</t>
+    <t xml:space="preserve">Geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Hierarchy</t>
   </si>
   <si>
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
-    <t xml:space="preserve">TotalFood</t>
+    <t xml:space="preserve">Surface</t>
   </si>
   <si>
     <t xml:space="preserve">Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Total mass food per country</t>
+    <t xml:space="preserve">Category surface</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
-    <t xml:space="preserve">TotalFoodUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonnes or Calories?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concept1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concept2</t>
+    <t xml:space="preserve">SurfaceUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either km2 or SquareMile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data://</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopulationDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either p/km2 or p/SquareMile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km2</t>
   </si>
 </sst>
 </file>
@@ -257,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,6 +324,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,6 +411,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,7 +591,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -737,19 +797,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -796,27 +859,21 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -836,23 +893,25 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -872,23 +931,22 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -908,7 +966,129 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="file:///"/>
+    <hyperlink ref="B6" r:id="rId2" display="data://"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -924,27 +1104,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>74</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
+++ b/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Categories" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CodeHierarchies" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DatasetDef" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="DatasetData" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -205,25 +205,7 @@
     <t xml:space="preserve">test1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">file:///</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv</t>
-    </r>
+    <t xml:space="preserve">file:///tmp/07_custom_dataset_test1.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Test dataset #1</t>
@@ -233,9 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">Geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">Sample Hierarchy</t>
@@ -296,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -331,12 +310,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,7 +354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,18 +391,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -578,8 +547,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -786,8 +755,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -799,17 +768,17 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
@@ -904,10 +873,10 @@
         <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>37</v>
@@ -936,16 +905,16 @@
         <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -971,16 +940,16 @@
         <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1003,13 +972,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1032,7 +1001,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>62</v>
@@ -1041,10 +1010,10 @@
         <v>63</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>37</v>
@@ -1052,49 +1021,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="file:///"/>
+    <hyperlink ref="B2" r:id="rId1" display="file:///tmp/07_custom_dataset_test1.csv"/>
     <hyperlink ref="B6" r:id="rId2" display="data://"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1106,7 +1075,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1125,16 +1094,16 @@
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>77</v>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>43</v>
@@ -1143,12 +1112,12 @@
         <v>10.1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>45</v>
@@ -1157,12 +1126,12 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>49</v>
@@ -1171,12 +1140,12 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>51</v>
@@ -1185,7 +1154,7 @@
         <v>230</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1193,8 +1162,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
+++ b/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
@@ -205,7 +205,7 @@
     <t xml:space="preserve">test1</t>
   </si>
   <si>
-    <t xml:space="preserve">file:///tmp/07_custom_dataset_test1.csv</t>
+    <t xml:space="preserve">file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Test dataset #1</t>
@@ -393,12 +393,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -547,8 +547,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -755,8 +755,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1055,15 +1055,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="file:///tmp/07_custom_dataset_test1.csv"/>
+    <hyperlink ref="B2" r:id="rId1" display="file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv"/>
     <hyperlink ref="B6" r:id="rId2" display="data://"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1162,8 +1162,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
+++ b/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CodeHierarchies" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DatasetDef" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="DatasetData" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DatasetData 2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DatasetData" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="90">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -202,46 +203,85 @@
     <t xml:space="preserve">ConceptDomain</t>
   </si>
   <si>
+    <t xml:space="preserve">test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data://#DatasetData 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #3. Embedded, specifying worksheet Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopulationDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either p/km2 or p/SquareMile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nextcloud.data.magic-nexus.eu/remote.php/webdav/NIS_beta/CS_format_examples/07_custom_dataset_test1_external.xlsx#Worksheet_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #5. External, stored in Nextcloud of MAGIC project, XLSX format (pointing to one of the worksheets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurfaceUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either km2 or SquareMile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nextcloud.data.magic-nexus.eu/remote.php/webdav/NIS_beta/CS_format_examples/07_custom_dataset_test1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #4. External, stored in Nextcloud of MAGIC project</t>
+  </si>
+  <si>
     <t xml:space="preserve">test1</t>
   </si>
   <si>
-    <t xml:space="preserve">file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test dataset #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Hierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SurfaceUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnitName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Either km2 or SquareMile</t>
+    <t xml:space="preserve">file:///home/rnebot/Dropbox/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test dataset #1. External, stored locally (“file”)</t>
   </si>
   <si>
     <t xml:space="preserve">test2</t>
@@ -250,19 +290,7 @@
     <t xml:space="preserve">data://</t>
   </si>
   <si>
-    <t xml:space="preserve">Test dataset #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PopulationDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Either p/km2 or p/SquareMile</t>
+    <t xml:space="preserve">Test dataset #2. Embedded, without worksheet Name (DatasetData must define DatasetName)</t>
   </si>
   <si>
     <t xml:space="preserve">km2</t>
@@ -383,12 +411,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -766,25 +794,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -828,39 +856,16 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -878,27 +883,6 @@
       <c r="F3" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -910,30 +894,12 @@
       <c r="D4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -951,35 +917,22 @@
       <c r="F5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1000,7 +953,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1018,9 +971,27 @@
       <c r="G7" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1029,15 +1000,33 @@
       <c r="D8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="0" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1052,11 +1041,398 @@
       <c r="F9" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv"/>
-    <hyperlink ref="B6" r:id="rId2" display="data://"/>
+    <hyperlink ref="B2" r:id="rId1" display="data://#DatasetData 2"/>
+    <hyperlink ref="B6" r:id="rId2" location="Worksheet_1" display="https://nextcloud.data.magic-nexus.eu/remote.php/webdav/NIS_beta/CS_format_examples/07_custom_dataset_test1_external.xlsx#Worksheet_1"/>
+    <hyperlink ref="B14" r:id="rId3" display="file:///home/rnebot/Dropbox/nis-backend/backend_tests/z_input_files/v2/07_custom_dataset_test1.csv"/>
+    <hyperlink ref="B18" r:id="rId4" display="data://"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1073,10 +1449,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,15 +1555,15 @@
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>43</v>
@@ -1112,12 +1572,12 @@
         <v>10.1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>45</v>
@@ -1126,12 +1586,12 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>49</v>
@@ -1140,12 +1600,12 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>51</v>
@@ -1154,7 +1614,7 @@
         <v>230</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
+++ b/backend_tests/z_input_files/v2/07_custom_datasets.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Case study specifying test datasets with the only purpose of testing the application</t>
+    <t xml:space="preserve">Case study specifying test datasets with the only purpose of testing</t>
   </si>
   <si>
     <t xml:space="preserve">Geographical level</t>
   </si>
   <si>
-    <t xml:space="preserve">Regional</t>
+    <t xml:space="preserve">Global</t>
   </si>
   <si>
     <t xml:space="preserve">Dimensions</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Geographical location</t>
   </si>
   <si>
-    <t xml:space="preserve">Almería</t>
+    <t xml:space="preserve">Cyberworld</t>
   </si>
   <si>
     <t xml:space="preserve">DOI</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">https://nextcloud.data.magic-nexus.eu/remote.php/webdav/NIS_beta/CS_format_examples/07_custom_dataset_test1_external.xlsx#Worksheet_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Test dataset #5. External, stored in Nextcloud of MAGIC project, XLSX format (pointing to one of the worksheets)</t>
+    <t xml:space="preserve">Test dataset #5. External, stored in Nextcloud of MAGIC project, XLSX format &amp; pointing to one of the worksheets</t>
   </si>
   <si>
     <t xml:space="preserve">Surface</t>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,9 +805,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="94.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
@@ -918,7 +918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>80</v>
       </c>
